--- a/public/data-import/users.xlsx
+++ b/public/data-import/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\education_management\public\data-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD36036-0DA7-4D5D-8680-8C698CA90BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A98AA-E865-4480-A187-E0E712E2FE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,16 +431,16 @@
     <t>29-01-2009</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>http://localhost:8000/images/avatar/avatar-default.png</t>
+    <t>role_Admin</t>
+  </si>
+  <si>
+    <t>role_Student</t>
+  </si>
+  <si>
+    <t>role_Teacher</t>
+  </si>
+  <si>
+    <t>users/avatar-default.gif</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,6 +836,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1001,7 +1002,7 @@
         <v>12345678</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1040,7 +1041,7 @@
         <v>12345678</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1079,7 +1080,7 @@
         <v>12345678</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1118,7 +1119,7 @@
         <v>12345678</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1157,7 +1158,7 @@
         <v>12345678</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1196,7 +1197,7 @@
         <v>12345678</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -1235,7 +1236,7 @@
         <v>12345678</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -1274,7 +1275,7 @@
         <v>12345678</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1313,7 +1314,7 @@
         <v>12345678</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1352,7 +1353,7 @@
         <v>12345678</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -1391,7 +1392,7 @@
         <v>12345678</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -1430,7 +1431,7 @@
         <v>12345678</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16">
         <v>14</v>
@@ -1469,7 +1470,7 @@
         <v>12345678</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -1508,7 +1509,7 @@
         <v>12345678</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18">
         <v>16</v>
@@ -1547,7 +1548,7 @@
         <v>12345678</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19">
         <v>17</v>
@@ -1586,7 +1587,7 @@
         <v>12345678</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20">
         <v>18</v>
@@ -1625,7 +1626,7 @@
         <v>12345678</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K21">
         <v>19</v>
@@ -1664,7 +1665,7 @@
         <v>12345678</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K22">
         <v>20</v>
@@ -1703,7 +1704,7 @@
         <v>12345678</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23">
         <v>21</v>
@@ -1742,7 +1743,7 @@
         <v>12345678</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>22</v>
@@ -1781,7 +1782,7 @@
         <v>12345678</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K25">
         <v>23</v>
@@ -1820,7 +1821,7 @@
         <v>12345678</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K26">
         <v>24</v>
@@ -1833,12 +1834,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{58138E49-7008-4C81-95D9-0DC5FF2AECC6}"/>
-    <hyperlink ref="L5" r:id="rId2" display="email_@gmail.com" xr:uid="{D549E9D8-3732-4BEB-92CF-6D9515808662}"/>
-    <hyperlink ref="L6:L26" r:id="rId3" display="email_@gmail.com" xr:uid="{8D057961-A421-4045-B65D-34E6BD62BC2F}"/>
-    <hyperlink ref="C4:C26" r:id="rId4" display="http://localhost:8000/images/avatar/avatar-default.png" xr:uid="{CC22CD36-1978-4E22-ADA0-1CA69EDBE668}"/>
+    <hyperlink ref="L5" r:id="rId1" display="email_@gmail.com" xr:uid="{D549E9D8-3732-4BEB-92CF-6D9515808662}"/>
+    <hyperlink ref="L6:L26" r:id="rId2" display="email_@gmail.com" xr:uid="{8D057961-A421-4045-B65D-34E6BD62BC2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>